--- a/metadata/user_defined_inputs.xlsx
+++ b/metadata/user_defined_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimberly.cressman\Desktop\Main Docs\NSC - R for Sentinel Sites\SETr_workflow_development\Reserve_Template\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F3D72-4C7C-4E7F-B47B-6B665E341654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D4060-7570-4060-910B-2FDC32B7FD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5BC370CD-7813-47AA-9068-C32C712860AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{5BC370CD-7813-47AA-9068-C32C712860AD}"/>
   </bookViews>
   <sheets>
     <sheet name="qaqc_codes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>Higher than "expected"</t>
   </si>
@@ -392,21 +394,6 @@
     <t>…for outreach documents</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Do you want lat/long included in the informational tables? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(must be either TRUE or FALSE, all caps)</t>
-    </r>
-  </si>
-  <si>
     <t>coords_tech</t>
   </si>
   <si>
@@ -417,31 +404,6 @@
   </si>
   <si>
     <t>legend_alignment</t>
-  </si>
-  <si>
-    <t>Where in relation to the plot?
-1 = on the right
-2 = on the bottom</t>
-  </si>
-  <si>
-    <t>Text aligned how?
-1 = vertically (each entry on a row)
-2 = horizontally (may make multiple rows, but generally goes side-to-side)</t>
-  </si>
-  <si>
-    <r>
-      <t>Let's talk about legends in the summary plots.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When vegetation is used to color the points, you want things:</t>
-    </r>
   </si>
   <si>
     <t>Mammal Burrow (e.g. muskrats)</t>
@@ -528,6 +490,75 @@
         <scheme val="minor"/>
       </rPr>
       <t>(no quotes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Let's talk about legends in the summary plots.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When vegetation is used to color the points, you have these legend options:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When saving these graphs, what do you want their dimensions to be? (inches) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ideal dimensions will be influenced by legend location.</t>
+    </r>
+  </si>
+  <si>
+    <t>Where in relation to the plot?
+      1 = on the right
+      2 = on the bottom</t>
+  </si>
+  <si>
+    <t>Text aligned how?
+      1 = vertically (each entry on a row)
+      2 = horizontally (may make multiple rows, but generally goes side-to-side)</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>height_veg</t>
+  </si>
+  <si>
+    <t>width_veg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you want lat/long included in the informational tables? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      0 = no, do not include
+      1 = yes, include</t>
     </r>
   </si>
 </sst>
@@ -918,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32941255-7FFC-42E4-A302-088C5329609E}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -934,7 +965,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1369,7 +1400,7 @@
         <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="5"/>
@@ -1385,7 +1416,7 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="5"/>
@@ -1449,7 +1480,7 @@
         <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I35" t="str">
         <f>$C$35</f>
@@ -1462,30 +1493,30 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -1627,7 +1658,7 @@
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I47" t="str">
         <f>$C$47</f>
@@ -1720,16 +1751,16 @@
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I53" t="s">
         <v>72</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
@@ -1750,21 +1781,21 @@
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" ref="J56:J61" si="11">_xlfn.CONCAT(I56," ", E56)</f>
@@ -1773,10 +1804,10 @@
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I57" t="str">
         <f>$C$55</f>
@@ -1795,7 +1826,7 @@
         <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="11"/>
@@ -1820,10 +1851,10 @@
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I60" t="s">
         <v>74</v>
@@ -1835,10 +1866,10 @@
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I61" t="s">
         <v>74</v>
@@ -1866,30 +1897,30 @@
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1900,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE737B49-75B7-4A38-A269-0AAD0BDB61C0}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,58 +2060,85 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="4" t="b">
+      <c r="B17" s="4">
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="4" t="b">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
